--- a/MANUFACTURE/F405_pill_BOM.xlsx
+++ b/MANUFACTURE/F405_pill_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owhite/Documents/kicad /F405_pill/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owhite/kicad/F405_pill/MANUFACTURE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21B1B0E8-3CE2-9D43-BFA5-66D7EE9FABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7F1CCF-41BB-7040-8B8B-1A4B6CD11B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="34160" yWindow="6280" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F405_pill" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>Comment</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Capacitor_Tantalum_SMD:CP_EIA-3216-18_Kemet-A</t>
   </si>
   <si>
-    <t>C307331</t>
+    <t>C110055</t>
   </si>
   <si>
     <t>100n</t>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>C20</t>
-  </si>
-  <si>
-    <t>C110055</t>
   </si>
   <si>
     <t>18p</t>
@@ -271,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1105,7 +1102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1113,6 +1110,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="57.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1209,43 +1209,43 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1256,198 +1256,198 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>79</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
